--- a/inc/flattened/createYaml/VAI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VAI-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F6C91D-4E09-DB4D-A3E1-E429136586D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD46A89-863E-514E-B6BF-78E5C8BEFA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="4080" windowWidth="27320" windowHeight="14860" xr2:uid="{E4BD15C6-4400-1343-AC8C-A1FC41388A9F}"/>
+    <workbookView xWindow="-27340" yWindow="4080" windowWidth="27320" windowHeight="14860" xr2:uid="{E4BD15C6-4400-1343-AC8C-A1FC41388A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="VAI_IND" sheetId="1" r:id="rId1"/>
@@ -3060,15 +3060,6 @@
     <t>niwebinige&gt;&gt;</t>
   </si>
   <si>
-    <t>nibaa&gt;&gt;</t>
-  </si>
-  <si>
-    <t>ni&lt;&lt;nibaa&gt;&gt;</t>
-  </si>
-  <si>
-    <t>gi&lt;&lt;nibaa&gt;&gt;</t>
-  </si>
-  <si>
     <t>niniimi&gt;&gt;min</t>
   </si>
   <si>
@@ -3741,9 +3732,30 @@
     <t>ginagamo&gt;&gt;mwaaban</t>
   </si>
   <si>
+    <t>nagamo&gt;&gt;oban</t>
+  </si>
+  <si>
+    <t>nagamo&gt;&gt;obaniig</t>
+  </si>
+  <si>
+    <t>nagamo&gt;&gt;obaniin</t>
+  </si>
+  <si>
     <t>nagamo&gt;&gt;mwaaban</t>
   </si>
   <si>
+    <t>nagamo&gt;&gt;obaneg</t>
+  </si>
+  <si>
+    <t>nagamo&gt;&gt;obanen</t>
+  </si>
+  <si>
+    <t>nagamo&gt;&gt;obanii'</t>
+  </si>
+  <si>
+    <t>nagamo&gt;&gt;obane'</t>
+  </si>
+  <si>
     <t>niimii&gt;&gt;ban</t>
   </si>
   <si>
@@ -3765,27 +3777,6 @@
     <t>niimii&gt;&gt;bane'</t>
   </si>
   <si>
-    <t>nagamoo&gt;&gt;ban</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;baniig</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;baniin</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;baneg</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;banen</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;banii'</t>
-  </si>
-  <si>
-    <t>nagamoo&gt;&gt;bane'</t>
-  </si>
-  <si>
     <t>niwanishin&gt;&gt;inaaban</t>
   </si>
   <si>
@@ -4174,6 +4165,15 @@
   </si>
   <si>
     <t>wanishin&gt;&gt;ziibane'</t>
+  </si>
+  <si>
+    <t>ni&lt;&lt;nibaa&gt;&gt;0</t>
+  </si>
+  <si>
+    <t>gi&lt;&lt;nibaa&gt;&gt;0</t>
+  </si>
+  <si>
+    <t>nibaa&gt;&gt;0</t>
   </si>
 </sst>
 </file>
@@ -4527,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2A357-C052-5C45-9A70-6AB7A159287E}">
   <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C338" zoomScale="164" workbookViewId="0">
-      <selection activeCell="I341" sqref="I341"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4600,7 +4600,7 @@
         <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>1009</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4626,7 +4626,7 @@
         <v>322</v>
       </c>
       <c r="H3" t="s">
-        <v>1010</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4730,7 +4730,7 @@
         <v>322</v>
       </c>
       <c r="H7" t="s">
-        <v>1008</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5701,7 +5701,7 @@
         <v>322</v>
       </c>
       <c r="H44" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>322</v>
       </c>
       <c r="H45" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>322</v>
       </c>
       <c r="H46" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
         <v>322</v>
       </c>
       <c r="H47" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5805,7 +5805,7 @@
         <v>322</v>
       </c>
       <c r="H48" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>322</v>
       </c>
       <c r="H49" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -5857,10 +5857,10 @@
         <v>322</v>
       </c>
       <c r="H50" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I50" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
         <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
         <v>322</v>
       </c>
       <c r="H52" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5938,7 +5938,7 @@
         <v>322</v>
       </c>
       <c r="H53" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5964,7 +5964,7 @@
         <v>322</v>
       </c>
       <c r="H54" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5990,7 +5990,7 @@
         <v>322</v>
       </c>
       <c r="H55" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
         <v>322</v>
       </c>
       <c r="H56" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6042,7 +6042,7 @@
         <v>322</v>
       </c>
       <c r="H57" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
         <v>322</v>
       </c>
       <c r="H58" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6094,7 +6094,7 @@
         <v>322</v>
       </c>
       <c r="H59" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -6120,10 +6120,10 @@
         <v>322</v>
       </c>
       <c r="H60" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I60" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
         <v>322</v>
       </c>
       <c r="H61" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>322</v>
       </c>
       <c r="H62" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -6201,7 +6201,7 @@
         <v>322</v>
       </c>
       <c r="H63" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -6227,7 +6227,7 @@
         <v>322</v>
       </c>
       <c r="H64" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6253,7 +6253,7 @@
         <v>322</v>
       </c>
       <c r="H65" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>322</v>
       </c>
       <c r="H66" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>322</v>
       </c>
       <c r="H67" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -6331,7 +6331,7 @@
         <v>322</v>
       </c>
       <c r="H68" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
         <v>322</v>
       </c>
       <c r="H69" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -6383,10 +6383,10 @@
         <v>322</v>
       </c>
       <c r="H70" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I70" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,7 +6412,7 @@
         <v>322</v>
       </c>
       <c r="H71" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>322</v>
       </c>
       <c r="H72" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -6464,7 +6464,7 @@
         <v>322</v>
       </c>
       <c r="H73" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -6490,7 +6490,7 @@
         <v>322</v>
       </c>
       <c r="H74" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>322</v>
       </c>
       <c r="H75" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -6542,7 +6542,7 @@
         <v>322</v>
       </c>
       <c r="H76" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6568,7 +6568,7 @@
         <v>322</v>
       </c>
       <c r="H77" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>322</v>
       </c>
       <c r="H78" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -6620,7 +6620,7 @@
         <v>322</v>
       </c>
       <c r="H79" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -6646,10 +6646,10 @@
         <v>322</v>
       </c>
       <c r="H80" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I80" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -6675,7 +6675,7 @@
         <v>322</v>
       </c>
       <c r="H81" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -6701,7 +6701,7 @@
         <v>322</v>
       </c>
       <c r="H82" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>322</v>
       </c>
       <c r="H83" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
         <v>322</v>
       </c>
       <c r="H84" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -6779,7 +6779,7 @@
         <v>322</v>
       </c>
       <c r="H85" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6805,7 +6805,7 @@
         <v>322</v>
       </c>
       <c r="H86" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>322</v>
       </c>
       <c r="H87" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6857,7 +6857,7 @@
         <v>322</v>
       </c>
       <c r="H88" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>322</v>
       </c>
       <c r="H89" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6909,10 +6909,10 @@
         <v>322</v>
       </c>
       <c r="H90" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I90" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6938,7 +6938,7 @@
         <v>322</v>
       </c>
       <c r="H91" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6964,10 +6964,10 @@
         <v>323</v>
       </c>
       <c r="H92" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="I92" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6993,10 +6993,10 @@
         <v>323</v>
       </c>
       <c r="H93" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="I93" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>323</v>
       </c>
       <c r="H94" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -7048,7 +7048,7 @@
         <v>323</v>
       </c>
       <c r="H95" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -7074,7 +7074,7 @@
         <v>323</v>
       </c>
       <c r="H96" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7100,10 +7100,10 @@
         <v>323</v>
       </c>
       <c r="H97" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="I97" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
         <v>323</v>
       </c>
       <c r="H98" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -7155,7 +7155,7 @@
         <v>323</v>
       </c>
       <c r="H99" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -7181,10 +7181,10 @@
         <v>323</v>
       </c>
       <c r="H100" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="I100" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -7210,7 +7210,7 @@
         <v>323</v>
       </c>
       <c r="H101" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -7236,10 +7236,10 @@
         <v>323</v>
       </c>
       <c r="H102" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I102" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -7265,10 +7265,10 @@
         <v>323</v>
       </c>
       <c r="H103" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I103" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -7294,7 +7294,7 @@
         <v>323</v>
       </c>
       <c r="H104" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -7320,7 +7320,7 @@
         <v>323</v>
       </c>
       <c r="H105" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -7346,7 +7346,7 @@
         <v>323</v>
       </c>
       <c r="H106" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -7372,10 +7372,10 @@
         <v>323</v>
       </c>
       <c r="H107" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I107" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -7401,7 +7401,7 @@
         <v>323</v>
       </c>
       <c r="H108" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
         <v>323</v>
       </c>
       <c r="H109" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -7453,10 +7453,10 @@
         <v>323</v>
       </c>
       <c r="H110" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="I110" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -7482,7 +7482,7 @@
         <v>323</v>
       </c>
       <c r="H111" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -7508,10 +7508,10 @@
         <v>323</v>
       </c>
       <c r="H112" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I112" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -7537,10 +7537,10 @@
         <v>323</v>
       </c>
       <c r="H113" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I113" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -7566,7 +7566,7 @@
         <v>323</v>
       </c>
       <c r="H114" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -7592,7 +7592,7 @@
         <v>323</v>
       </c>
       <c r="H115" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -7618,7 +7618,7 @@
         <v>323</v>
       </c>
       <c r="H116" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -7644,10 +7644,10 @@
         <v>323</v>
       </c>
       <c r="H117" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I117" t="s">
         <v>1091</v>
-      </c>
-      <c r="I117" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -7673,7 +7673,7 @@
         <v>323</v>
       </c>
       <c r="H118" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -7699,7 +7699,7 @@
         <v>323</v>
       </c>
       <c r="H119" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>323</v>
       </c>
       <c r="H120" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="I120" t="s">
         <v>241</v>
@@ -7754,7 +7754,7 @@
         <v>323</v>
       </c>
       <c r="H121" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -7780,10 +7780,10 @@
         <v>323</v>
       </c>
       <c r="H122" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="I122" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -7809,10 +7809,10 @@
         <v>323</v>
       </c>
       <c r="H123" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="I123" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -7838,7 +7838,7 @@
         <v>323</v>
       </c>
       <c r="H124" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -7864,7 +7864,7 @@
         <v>323</v>
       </c>
       <c r="H125" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -7890,7 +7890,7 @@
         <v>323</v>
       </c>
       <c r="H126" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -7916,10 +7916,10 @@
         <v>323</v>
       </c>
       <c r="H127" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="I127" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
         <v>323</v>
       </c>
       <c r="H128" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -7971,7 +7971,7 @@
         <v>323</v>
       </c>
       <c r="H129" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -7997,10 +7997,10 @@
         <v>323</v>
       </c>
       <c r="H130" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="I130" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -8026,7 +8026,7 @@
         <v>323</v>
       </c>
       <c r="H131" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -8052,10 +8052,10 @@
         <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="I132" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -8081,10 +8081,10 @@
         <v>323</v>
       </c>
       <c r="H133" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I133" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
         <v>323</v>
       </c>
       <c r="H134" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -8136,7 +8136,7 @@
         <v>323</v>
       </c>
       <c r="H135" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -8162,7 +8162,7 @@
         <v>323</v>
       </c>
       <c r="H136" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
         <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I137" t="s">
         <v>25</v>
@@ -8217,7 +8217,7 @@
         <v>323</v>
       </c>
       <c r="H138" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -8243,7 +8243,7 @@
         <v>323</v>
       </c>
       <c r="H139" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -8269,7 +8269,7 @@
         <v>323</v>
       </c>
       <c r="H140" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I140" t="s">
         <v>242</v>
@@ -8298,7 +8298,7 @@
         <v>323</v>
       </c>
       <c r="H141" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -8324,10 +8324,10 @@
         <v>323</v>
       </c>
       <c r="H142" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="I142" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -8353,10 +8353,10 @@
         <v>323</v>
       </c>
       <c r="H143" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="I143" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -8382,7 +8382,7 @@
         <v>323</v>
       </c>
       <c r="H144" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -8408,7 +8408,7 @@
         <v>323</v>
       </c>
       <c r="H145" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -8434,7 +8434,7 @@
         <v>323</v>
       </c>
       <c r="H146" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -8460,10 +8460,10 @@
         <v>323</v>
       </c>
       <c r="H147" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I147" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -8489,7 +8489,7 @@
         <v>323</v>
       </c>
       <c r="H148" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -8515,7 +8515,7 @@
         <v>323</v>
       </c>
       <c r="H149" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -8541,10 +8541,10 @@
         <v>323</v>
       </c>
       <c r="H150" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I150" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -8570,7 +8570,7 @@
         <v>323</v>
       </c>
       <c r="H151" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -8596,10 +8596,10 @@
         <v>323</v>
       </c>
       <c r="H152" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="I152" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -8625,10 +8625,10 @@
         <v>323</v>
       </c>
       <c r="H153" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I153" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
         <v>323</v>
       </c>
       <c r="H154" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -8680,7 +8680,7 @@
         <v>323</v>
       </c>
       <c r="H155" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -8706,7 +8706,7 @@
         <v>323</v>
       </c>
       <c r="H156" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -8732,10 +8732,10 @@
         <v>323</v>
       </c>
       <c r="H157" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I157" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -8761,7 +8761,7 @@
         <v>323</v>
       </c>
       <c r="H158" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>323</v>
       </c>
       <c r="H159" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -8813,10 +8813,10 @@
         <v>323</v>
       </c>
       <c r="H160" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I160" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -8842,7 +8842,7 @@
         <v>323</v>
       </c>
       <c r="H161" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -8868,10 +8868,10 @@
         <v>323</v>
       </c>
       <c r="H162" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="I162" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -8897,10 +8897,10 @@
         <v>323</v>
       </c>
       <c r="H163" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="I163" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
         <v>323</v>
       </c>
       <c r="H164" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>323</v>
       </c>
       <c r="H165" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -8978,7 +8978,7 @@
         <v>323</v>
       </c>
       <c r="H166" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -9004,10 +9004,10 @@
         <v>323</v>
       </c>
       <c r="H167" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I167" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -9033,7 +9033,7 @@
         <v>323</v>
       </c>
       <c r="H168" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -9059,7 +9059,7 @@
         <v>323</v>
       </c>
       <c r="H169" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -9085,10 +9085,10 @@
         <v>323</v>
       </c>
       <c r="H170" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="I170" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -9114,7 +9114,7 @@
         <v>323</v>
       </c>
       <c r="H171" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -9140,10 +9140,10 @@
         <v>323</v>
       </c>
       <c r="H172" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="I172" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -9169,10 +9169,10 @@
         <v>323</v>
       </c>
       <c r="H173" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="I173" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -9198,7 +9198,7 @@
         <v>323</v>
       </c>
       <c r="H174" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -9224,7 +9224,7 @@
         <v>323</v>
       </c>
       <c r="H175" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -9250,7 +9250,7 @@
         <v>323</v>
       </c>
       <c r="H176" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -9276,10 +9276,10 @@
         <v>323</v>
       </c>
       <c r="H177" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="I177" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -9305,7 +9305,7 @@
         <v>323</v>
       </c>
       <c r="H178" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -9331,7 +9331,7 @@
         <v>323</v>
       </c>
       <c r="H179" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -9357,10 +9357,10 @@
         <v>323</v>
       </c>
       <c r="H180" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="I180" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -9386,7 +9386,7 @@
         <v>323</v>
       </c>
       <c r="H181" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
         <v>322</v>
       </c>
       <c r="H182" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -9438,7 +9438,7 @@
         <v>322</v>
       </c>
       <c r="H183" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>322</v>
       </c>
       <c r="H184" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>322</v>
       </c>
       <c r="H185" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -9516,7 +9516,7 @@
         <v>322</v>
       </c>
       <c r="H186" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -9542,7 +9542,7 @@
         <v>322</v>
       </c>
       <c r="H187" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -9568,10 +9568,10 @@
         <v>322</v>
       </c>
       <c r="H188" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="I188" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -9597,10 +9597,10 @@
         <v>322</v>
       </c>
       <c r="H189" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I189" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -9626,16 +9626,16 @@
         <v>322</v>
       </c>
       <c r="H190" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I190" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J190" t="s">
         <v>1180</v>
       </c>
-      <c r="J190" t="s">
-        <v>1183</v>
-      </c>
       <c r="K190" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -9661,7 +9661,7 @@
         <v>322</v>
       </c>
       <c r="H191" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -9687,7 +9687,7 @@
         <v>322</v>
       </c>
       <c r="H192" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -9713,7 +9713,7 @@
         <v>322</v>
       </c>
       <c r="H193" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -9739,7 +9739,7 @@
         <v>322</v>
       </c>
       <c r="H194" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -9765,7 +9765,7 @@
         <v>322</v>
       </c>
       <c r="H195" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -9791,7 +9791,7 @@
         <v>322</v>
       </c>
       <c r="H196" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -9817,7 +9817,7 @@
         <v>322</v>
       </c>
       <c r="H197" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -9843,10 +9843,10 @@
         <v>322</v>
       </c>
       <c r="H198" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I198" t="s">
         <v>1191</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -9872,10 +9872,10 @@
         <v>322</v>
       </c>
       <c r="H199" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I199" t="s">
         <v>1192</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -9901,16 +9901,16 @@
         <v>322</v>
       </c>
       <c r="H200" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I200" t="s">
         <v>1192</v>
       </c>
-      <c r="I200" t="s">
-        <v>1195</v>
-      </c>
       <c r="J200" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="K200" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -9936,7 +9936,7 @@
         <v>322</v>
       </c>
       <c r="H201" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -9962,7 +9962,7 @@
         <v>322</v>
       </c>
       <c r="H202" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -9988,7 +9988,7 @@
         <v>322</v>
       </c>
       <c r="H203" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -10014,7 +10014,7 @@
         <v>322</v>
       </c>
       <c r="H204" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -10040,7 +10040,7 @@
         <v>322</v>
       </c>
       <c r="H205" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -10066,7 +10066,7 @@
         <v>322</v>
       </c>
       <c r="H206" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -10092,7 +10092,7 @@
         <v>322</v>
       </c>
       <c r="H207" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -10118,10 +10118,10 @@
         <v>322</v>
       </c>
       <c r="H208" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I208" t="s">
         <v>1204</v>
-      </c>
-      <c r="I208" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -10147,10 +10147,10 @@
         <v>322</v>
       </c>
       <c r="H209" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I209" t="s">
         <v>1205</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -10176,16 +10176,16 @@
         <v>322</v>
       </c>
       <c r="H210" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I210" t="s">
         <v>1205</v>
       </c>
-      <c r="I210" t="s">
-        <v>1208</v>
-      </c>
       <c r="J210" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="K210" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -10211,7 +10211,7 @@
         <v>322</v>
       </c>
       <c r="H211" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -10237,7 +10237,7 @@
         <v>322</v>
       </c>
       <c r="H212" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -10263,7 +10263,7 @@
         <v>322</v>
       </c>
       <c r="H213" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -10289,7 +10289,7 @@
         <v>322</v>
       </c>
       <c r="H214" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -10315,7 +10315,7 @@
         <v>322</v>
       </c>
       <c r="H215" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -10341,7 +10341,7 @@
         <v>322</v>
       </c>
       <c r="H216" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>322</v>
       </c>
       <c r="H217" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -10393,10 +10393,10 @@
         <v>322</v>
       </c>
       <c r="H218" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I218" t="s">
         <v>1217</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -10422,10 +10422,10 @@
         <v>322</v>
       </c>
       <c r="H219" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I219" t="s">
         <v>1218</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -10451,16 +10451,16 @@
         <v>322</v>
       </c>
       <c r="H220" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I220" t="s">
         <v>1218</v>
       </c>
-      <c r="I220" t="s">
-        <v>1221</v>
-      </c>
       <c r="J220" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K220" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -10486,7 +10486,7 @@
         <v>322</v>
       </c>
       <c r="H221" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -10512,7 +10512,7 @@
         <v>322</v>
       </c>
       <c r="H222" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
         <v>322</v>
       </c>
       <c r="H223" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
         <v>322</v>
       </c>
       <c r="H224" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -10590,7 +10590,7 @@
         <v>322</v>
       </c>
       <c r="H225" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -10616,7 +10616,7 @@
         <v>322</v>
       </c>
       <c r="H226" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -10642,7 +10642,7 @@
         <v>322</v>
       </c>
       <c r="H227" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -10668,10 +10668,10 @@
         <v>322</v>
       </c>
       <c r="H228" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="I228" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -10697,10 +10697,10 @@
         <v>322</v>
       </c>
       <c r="H229" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="I229" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -10726,16 +10726,16 @@
         <v>322</v>
       </c>
       <c r="H230" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="I230" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="J230" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="K230" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -10761,7 +10761,7 @@
         <v>322</v>
       </c>
       <c r="H231" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -10787,7 +10787,7 @@
         <v>322</v>
       </c>
       <c r="H232" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -10813,7 +10813,7 @@
         <v>322</v>
       </c>
       <c r="H233" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -10839,7 +10839,7 @@
         <v>322</v>
       </c>
       <c r="H234" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -10865,7 +10865,7 @@
         <v>322</v>
       </c>
       <c r="H235" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -10891,7 +10891,7 @@
         <v>322</v>
       </c>
       <c r="H236" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
         <v>322</v>
       </c>
       <c r="H237" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -10943,10 +10943,10 @@
         <v>322</v>
       </c>
       <c r="H238" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="I238" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -10972,10 +10972,10 @@
         <v>322</v>
       </c>
       <c r="H239" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="I239" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -11001,16 +11001,16 @@
         <v>322</v>
       </c>
       <c r="H240" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="I240" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="J240" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="K240" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
         <v>322</v>
       </c>
       <c r="H242" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -11088,7 +11088,7 @@
         <v>322</v>
       </c>
       <c r="H243" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -11114,7 +11114,7 @@
         <v>322</v>
       </c>
       <c r="H244" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -11140,7 +11140,7 @@
         <v>322</v>
       </c>
       <c r="H245" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -11166,7 +11166,7 @@
         <v>322</v>
       </c>
       <c r="H246" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -11192,7 +11192,7 @@
         <v>322</v>
       </c>
       <c r="H247" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -11218,10 +11218,10 @@
         <v>322</v>
       </c>
       <c r="H248" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I248" t="s">
         <v>1256</v>
-      </c>
-      <c r="I248" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -11247,10 +11247,10 @@
         <v>322</v>
       </c>
       <c r="H249" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I249" t="s">
         <v>1257</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
@@ -11276,16 +11276,16 @@
         <v>322</v>
       </c>
       <c r="H250" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I250" t="s">
         <v>1257</v>
       </c>
-      <c r="I250" t="s">
-        <v>1260</v>
-      </c>
       <c r="J250" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K250" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -11311,7 +11311,7 @@
         <v>322</v>
       </c>
       <c r="H251" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
         <v>322</v>
       </c>
       <c r="H252" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
@@ -11363,7 +11363,7 @@
         <v>322</v>
       </c>
       <c r="H253" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
@@ -11389,7 +11389,7 @@
         <v>322</v>
       </c>
       <c r="H254" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
@@ -11415,7 +11415,7 @@
         <v>322</v>
       </c>
       <c r="H255" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -11441,7 +11441,7 @@
         <v>322</v>
       </c>
       <c r="H256" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
@@ -11467,7 +11467,7 @@
         <v>322</v>
       </c>
       <c r="H257" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -11493,10 +11493,10 @@
         <v>322</v>
       </c>
       <c r="H258" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I258" t="s">
         <v>1269</v>
-      </c>
-      <c r="I258" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
@@ -11522,10 +11522,10 @@
         <v>322</v>
       </c>
       <c r="H259" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I259" t="s">
         <v>1270</v>
-      </c>
-      <c r="I259" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -11551,16 +11551,16 @@
         <v>322</v>
       </c>
       <c r="H260" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I260" t="s">
         <v>1270</v>
       </c>
-      <c r="I260" t="s">
-        <v>1273</v>
-      </c>
       <c r="J260" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="K260" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -11586,7 +11586,7 @@
         <v>322</v>
       </c>
       <c r="H261" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
@@ -11612,7 +11612,7 @@
         <v>322</v>
       </c>
       <c r="H262" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -11638,7 +11638,7 @@
         <v>322</v>
       </c>
       <c r="H263" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -11664,7 +11664,7 @@
         <v>322</v>
       </c>
       <c r="H264" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -11690,7 +11690,7 @@
         <v>322</v>
       </c>
       <c r="H265" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
         <v>322</v>
       </c>
       <c r="H266" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
         <v>322</v>
       </c>
       <c r="H267" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -11768,10 +11768,10 @@
         <v>322</v>
       </c>
       <c r="H268" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I268" t="s">
         <v>1282</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -11797,10 +11797,10 @@
         <v>322</v>
       </c>
       <c r="H269" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I269" t="s">
         <v>1283</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -11826,16 +11826,16 @@
         <v>322</v>
       </c>
       <c r="H270" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I270" t="s">
         <v>1283</v>
       </c>
-      <c r="I270" t="s">
-        <v>1286</v>
-      </c>
       <c r="J270" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="K270" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -11861,7 +11861,7 @@
         <v>322</v>
       </c>
       <c r="H271" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -11887,7 +11887,7 @@
         <v>323</v>
       </c>
       <c r="H272" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -11913,7 +11913,7 @@
         <v>323</v>
       </c>
       <c r="H273" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -11939,7 +11939,7 @@
         <v>323</v>
       </c>
       <c r="H274" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -11965,7 +11965,7 @@
         <v>323</v>
       </c>
       <c r="H275" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -11991,7 +11991,7 @@
         <v>323</v>
       </c>
       <c r="H276" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -12017,7 +12017,7 @@
         <v>323</v>
       </c>
       <c r="H277" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -12043,10 +12043,10 @@
         <v>323</v>
       </c>
       <c r="H278" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I278" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -12072,10 +12072,10 @@
         <v>323</v>
       </c>
       <c r="H279" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I279" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -12101,16 +12101,16 @@
         <v>323</v>
       </c>
       <c r="H280" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J280" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K280" t="s">
         <v>1298</v>
-      </c>
-      <c r="I280" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J280" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
         <v>323</v>
       </c>
       <c r="H281" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
@@ -12162,7 +12162,7 @@
         <v>323</v>
       </c>
       <c r="H282" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -12188,7 +12188,7 @@
         <v>323</v>
       </c>
       <c r="H283" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -12214,7 +12214,7 @@
         <v>323</v>
       </c>
       <c r="H284" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -12240,7 +12240,7 @@
         <v>323</v>
       </c>
       <c r="H285" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -12266,7 +12266,7 @@
         <v>323</v>
       </c>
       <c r="H286" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -12292,7 +12292,7 @@
         <v>323</v>
       </c>
       <c r="H287" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -12318,10 +12318,10 @@
         <v>323</v>
       </c>
       <c r="H288" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I288" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -12347,10 +12347,10 @@
         <v>323</v>
       </c>
       <c r="H289" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I289" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -12376,16 +12376,16 @@
         <v>323</v>
       </c>
       <c r="H290" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J290" t="s">
         <v>1309</v>
       </c>
-      <c r="I290" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J290" t="s">
-        <v>1312</v>
-      </c>
       <c r="K290" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -12411,7 +12411,7 @@
         <v>323</v>
       </c>
       <c r="H291" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -12437,7 +12437,7 @@
         <v>323</v>
       </c>
       <c r="H292" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -12463,7 +12463,7 @@
         <v>323</v>
       </c>
       <c r="H293" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -12489,7 +12489,7 @@
         <v>323</v>
       </c>
       <c r="H294" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
@@ -12515,7 +12515,7 @@
         <v>323</v>
       </c>
       <c r="H295" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -12541,7 +12541,7 @@
         <v>323</v>
       </c>
       <c r="H296" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
@@ -12567,7 +12567,7 @@
         <v>323</v>
       </c>
       <c r="H297" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -12593,10 +12593,10 @@
         <v>323</v>
       </c>
       <c r="H298" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I298" t="s">
         <v>1321</v>
-      </c>
-      <c r="I298" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
@@ -12622,10 +12622,10 @@
         <v>323</v>
       </c>
       <c r="H299" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I299" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
@@ -12651,16 +12651,16 @@
         <v>323</v>
       </c>
       <c r="H300" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J300" t="s">
         <v>1322</v>
       </c>
-      <c r="I300" t="s">
+      <c r="K300" t="s">
         <v>1323</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K300" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
@@ -12686,7 +12686,7 @@
         <v>323</v>
       </c>
       <c r="H301" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
@@ -12712,7 +12712,7 @@
         <v>323</v>
       </c>
       <c r="H302" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
@@ -12738,7 +12738,7 @@
         <v>323</v>
       </c>
       <c r="H303" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>323</v>
       </c>
       <c r="H304" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
@@ -12790,7 +12790,7 @@
         <v>323</v>
       </c>
       <c r="H305" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
@@ -12816,7 +12816,7 @@
         <v>323</v>
       </c>
       <c r="H306" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
@@ -12842,7 +12842,7 @@
         <v>323</v>
       </c>
       <c r="H307" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
@@ -12868,10 +12868,10 @@
         <v>323</v>
       </c>
       <c r="H308" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I308" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
@@ -12897,10 +12897,10 @@
         <v>323</v>
       </c>
       <c r="H309" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I309" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
@@ -12926,16 +12926,16 @@
         <v>323</v>
       </c>
       <c r="H310" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I310" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J310" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K310" t="s">
         <v>1337</v>
-      </c>
-      <c r="J310" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K310" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
@@ -12961,7 +12961,7 @@
         <v>323</v>
       </c>
       <c r="H311" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
@@ -12987,7 +12987,7 @@
         <v>323</v>
       </c>
       <c r="H312" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
@@ -13013,7 +13013,7 @@
         <v>323</v>
       </c>
       <c r="H313" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
@@ -13039,7 +13039,7 @@
         <v>323</v>
       </c>
       <c r="H314" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
         <v>323</v>
       </c>
       <c r="H315" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
@@ -13091,7 +13091,7 @@
         <v>323</v>
       </c>
       <c r="H316" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>323</v>
       </c>
       <c r="H317" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -13143,10 +13143,10 @@
         <v>323</v>
       </c>
       <c r="H318" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I318" t="s">
         <v>1347</v>
-      </c>
-      <c r="I318" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
@@ -13172,10 +13172,10 @@
         <v>323</v>
       </c>
       <c r="H319" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I319" t="s">
         <v>1348</v>
-      </c>
-      <c r="I319" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
@@ -13201,16 +13201,16 @@
         <v>323</v>
       </c>
       <c r="H320" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I320" t="s">
         <v>1348</v>
       </c>
-      <c r="I320" t="s">
-        <v>1351</v>
-      </c>
       <c r="J320" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="K320" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
@@ -13236,7 +13236,7 @@
         <v>323</v>
       </c>
       <c r="H321" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
@@ -13262,7 +13262,7 @@
         <v>323</v>
       </c>
       <c r="H322" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
@@ -13288,7 +13288,7 @@
         <v>323</v>
       </c>
       <c r="H323" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
@@ -13314,7 +13314,7 @@
         <v>323</v>
       </c>
       <c r="H324" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -13340,7 +13340,7 @@
         <v>323</v>
       </c>
       <c r="H325" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
@@ -13366,7 +13366,7 @@
         <v>323</v>
       </c>
       <c r="H326" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
@@ -13392,7 +13392,7 @@
         <v>323</v>
       </c>
       <c r="H327" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
@@ -13418,10 +13418,10 @@
         <v>323</v>
       </c>
       <c r="H328" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I328" t="s">
         <v>1360</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
@@ -13447,10 +13447,10 @@
         <v>323</v>
       </c>
       <c r="H329" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I329" t="s">
         <v>1361</v>
-      </c>
-      <c r="I329" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
@@ -13476,16 +13476,16 @@
         <v>323</v>
       </c>
       <c r="H330" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I330" t="s">
         <v>1361</v>
       </c>
-      <c r="I330" t="s">
-        <v>1364</v>
-      </c>
       <c r="J330" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="K330" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
@@ -13511,7 +13511,7 @@
         <v>323</v>
       </c>
       <c r="H331" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
@@ -13537,7 +13537,7 @@
         <v>323</v>
       </c>
       <c r="H332" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
         <v>323</v>
       </c>
       <c r="H333" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
@@ -13589,7 +13589,7 @@
         <v>323</v>
       </c>
       <c r="H334" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
@@ -13615,7 +13615,7 @@
         <v>323</v>
       </c>
       <c r="H335" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
@@ -13641,7 +13641,7 @@
         <v>323</v>
       </c>
       <c r="H336" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -13667,7 +13667,7 @@
         <v>323</v>
       </c>
       <c r="H337" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
@@ -13693,10 +13693,10 @@
         <v>323</v>
       </c>
       <c r="H338" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I338" t="s">
         <v>1373</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -13722,10 +13722,10 @@
         <v>323</v>
       </c>
       <c r="H339" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I339" t="s">
         <v>1374</v>
-      </c>
-      <c r="I339" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -13751,16 +13751,16 @@
         <v>323</v>
       </c>
       <c r="H340" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I340" t="s">
         <v>1374</v>
       </c>
-      <c r="I340" t="s">
-        <v>1377</v>
-      </c>
       <c r="J340" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="K340" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -13786,7 +13786,7 @@
         <v>323</v>
       </c>
       <c r="H341" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">

--- a/inc/flattened/createYaml/VAI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VAI-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C36C1D9-D8EA-864C-94AE-85022F0C020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EACD74-1625-6A44-8250-0B7CA02FFB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="5060" windowWidth="27320" windowHeight="14860" xr2:uid="{E4BD15C6-4400-1343-AC8C-A1FC41388A9F}"/>
+    <workbookView xWindow="-27320" yWindow="5060" windowWidth="27320" windowHeight="14860" activeTab="1" xr2:uid="{E4BD15C6-4400-1343-AC8C-A1FC41388A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="VAI_IND" sheetId="1" r:id="rId1"/>
@@ -4530,7 +4530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2A357-C052-5C45-9A70-6AB7A159287E}">
   <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D709" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="D709" zoomScale="116" workbookViewId="0">
       <selection activeCell="H535" sqref="H535"/>
     </sheetView>
   </sheetViews>
@@ -23468,15 +23468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D54E587-AC14-964D-9FC1-952CA7FC74FB}">
   <dimension ref="A1:J721"/>
   <sheetViews>
-    <sheetView topLeftCell="A713" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H721"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H352" sqref="H352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -42237,21 +42237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDA4FEBE11D32545B6C4D443ADFB229A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa29c2c3225ad03fb09b8df90fa91a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b103a3be-6c61-44b0-93c5-2b779aa38a01" xmlns:ns3="56612388-9f28-4625-93a0-6879c02082d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c16c82533632c11d7fcceef7f9e9ea5" ns2:_="" ns3:_="">
     <xsd:import namespace="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
@@ -42416,10 +42401,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48530352-E101-4324-AF33-2CA9EB04786F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18814AC-B423-4F54-94DD-AF2C7C595668}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
+    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42442,20 +42453,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18814AC-B423-4F54-94DD-AF2C7C595668}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48530352-E101-4324-AF33-2CA9EB04786F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
-    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inc/flattened/createYaml/VAI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VAI-splitstem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C1ACE-80C7-1B42-88A9-3E5BAFC6A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D17724-2B7F-4043-974E-78E8116D5A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36660" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{E4BD15C6-4400-1343-AC8C-A1FC41388A9F}"/>
   </bookViews>
@@ -4530,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2A357-C052-5C45-9A70-6AB7A159287E}">
   <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A690" zoomScale="116" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A712" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H707" sqref="H707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
